--- a/craw_data/hihonor/data/test.xlsx
+++ b/craw_data/hihonor/data/test.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中</t>
+          <t>涓?</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>哥哥</t>
+          <t>鍝ュ摜</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>偶像</t>
+          <t>鍋跺儚</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>劳拉</t>
+          <t>鍔虫媺</t>
         </is>
       </c>
     </row>
